--- a/资产负债表/688698.xlsx
+++ b/资产负债表/688698.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>SECUCODE</t>
   </si>
@@ -193,12 +193,18 @@
     <t>688698</t>
   </si>
   <si>
+    <t>016020</t>
+  </si>
+  <si>
     <t>10000066823</t>
   </si>
   <si>
     <t>伟创电气</t>
   </si>
   <si>
+    <t>输配电气</t>
+  </si>
+  <si>
     <t>kcb</t>
   </si>
   <si>
@@ -208,9 +214,6 @@
     <t>069001001006</t>
   </si>
   <si>
-    <t>002</t>
-  </si>
-  <si>
     <t>001</t>
   </si>
   <si>
@@ -220,7 +223,7 @@
     <t>2020-12-10 00:00:00</t>
   </si>
   <si>
-    <t>2020-06-30 00:00:00</t>
+    <t>2017-12-31 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -764,68 +767,74 @@
       <c r="B2" t="s">
         <v>58</v>
       </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O2">
-        <v>562078648.1</v>
+        <v>378535468.67</v>
       </c>
       <c r="P2">
-        <v>87549711.44</v>
+        <v>76730839.48999999</v>
       </c>
       <c r="Q2">
-        <v>64227611.37</v>
+        <v>17864613.67</v>
       </c>
       <c r="S2">
-        <v>160109216.78</v>
+        <v>105688532.98</v>
       </c>
       <c r="U2">
-        <v>128079354.25</v>
+        <v>61599392.4</v>
       </c>
       <c r="W2">
-        <v>254762296.94</v>
+        <v>200033652.99</v>
       </c>
       <c r="X2">
-        <v>146302260.58</v>
+        <v>48387690.64</v>
       </c>
       <c r="Z2">
-        <v>206026.61</v>
+        <v>23347842.04</v>
       </c>
       <c r="AB2">
-        <v>307316351.16</v>
+        <v>178501815.68</v>
       </c>
       <c r="AF2">
-        <v>188.8014555444</v>
+        <v>174.0570505753</v>
       </c>
       <c r="AG2">
-        <v>45.3250266313</v>
+        <v>52.8440977256</v>
       </c>
     </row>
   </sheetData>

--- a/资产负债表/688698.xlsx
+++ b/资产负债表/688698.xlsx
@@ -769,14 +769,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -789,49 +789,49 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-12-31 00:00:00</t>
+          <t>2020-06-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>378535468.67</v>
+        <v>562078648.1</v>
       </c>
       <c r="P2" t="n">
-        <v>76730839.48999999</v>
+        <v>87549711.44</v>
       </c>
       <c r="Q2" t="n">
-        <v>17864613.67</v>
+        <v>64227611.37</v>
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>105688532.98</v>
+        <v>160109216.78</v>
       </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>61599392.4</v>
+        <v>128079354.25</v>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>200033652.99</v>
+        <v>254762296.94</v>
       </c>
       <c r="X2" t="n">
-        <v>48387690.64</v>
+        <v>146302260.58</v>
       </c>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
-        <v>23347842.04</v>
+        <v>206026.61</v>
       </c>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
-        <v>178501815.68</v>
+        <v>307316351.16</v>
       </c>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="n">
-        <v>174.0570505753</v>
+        <v>188.8014555444</v>
       </c>
       <c r="AG2" t="n">
-        <v>52.8440977256</v>
+        <v>45.3250266313</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/688698.xlsx
+++ b/资产负债表/688698.xlsx
@@ -769,7 +769,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -789,49 +789,65 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-06-30 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>562078648.1</v>
+        <v>451417565.64</v>
       </c>
       <c r="P2" t="n">
-        <v>87549711.44</v>
+        <v>88828807.73</v>
       </c>
       <c r="Q2" t="n">
-        <v>64227611.37</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>62765070.75</v>
+      </c>
+      <c r="R2" t="n">
+        <v>26.7371598747</v>
+      </c>
       <c r="S2" t="n">
-        <v>160109216.78</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
+        <v>107011127.02</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.2338454294</v>
+      </c>
       <c r="U2" t="n">
-        <v>128079354.25</v>
-      </c>
-      <c r="V2" t="inlineStr"/>
+        <v>56306947.45</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-24.6854814242</v>
+      </c>
       <c r="W2" t="n">
-        <v>254762296.94</v>
+        <v>185976922.11</v>
       </c>
       <c r="X2" t="n">
-        <v>146302260.58</v>
-      </c>
-      <c r="Y2" t="inlineStr"/>
+        <v>59234015.95</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-5.3767821701</v>
+      </c>
       <c r="Z2" t="n">
-        <v>206026.61</v>
-      </c>
-      <c r="AA2" t="inlineStr"/>
+        <v>4472557.95</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-5.6361506744</v>
+      </c>
       <c r="AB2" t="n">
-        <v>307316351.16</v>
-      </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
+        <v>265440643.53</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>30.1298216791</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>8.3508638931</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-12.5408424924</v>
+      </c>
       <c r="AF2" t="n">
-        <v>188.8014555444</v>
+        <v>216.3490061109</v>
       </c>
       <c r="AG2" t="n">
-        <v>45.3250266313</v>
+        <v>41.1984238687</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/688698.xlsx
+++ b/资产负债表/688698.xlsx
@@ -769,14 +769,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -784,70 +784,54 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-12-10 00:00:00</t>
+          <t>2020-12-24 00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2020-06-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>451417565.64</v>
+        <v>562078648.1</v>
       </c>
       <c r="P2" t="n">
-        <v>88828807.73</v>
+        <v>87549711.44</v>
       </c>
       <c r="Q2" t="n">
-        <v>62765070.75</v>
-      </c>
-      <c r="R2" t="n">
-        <v>26.7371598747</v>
-      </c>
+        <v>64227611.37</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>107011127.02</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.2338454294</v>
-      </c>
+        <v>160109216.78</v>
+      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>56306947.45</v>
-      </c>
-      <c r="V2" t="n">
-        <v>-24.6854814242</v>
-      </c>
+        <v>128079354.25</v>
+      </c>
+      <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>185976922.11</v>
+        <v>254762296.94</v>
       </c>
       <c r="X2" t="n">
-        <v>59234015.95</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>-5.3767821701</v>
-      </c>
+        <v>146302260.58</v>
+      </c>
+      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
-        <v>4472557.95</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>-5.6361506744</v>
-      </c>
+        <v>206026.61</v>
+      </c>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
-        <v>265440643.53</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>30.1298216791</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>8.3508638931</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>-12.5408424924</v>
-      </c>
+        <v>307316351.16</v>
+      </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="n">
-        <v>216.3490061109</v>
+        <v>188.8014555444</v>
       </c>
       <c r="AG2" t="n">
-        <v>41.1984238687</v>
+        <v>45.3250266313</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/688698.xlsx
+++ b/资产负债表/688698.xlsx
@@ -769,7 +769,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -789,49 +789,49 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-06-30 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>562078648.1</v>
+        <v>378535468.67</v>
       </c>
       <c r="P2" t="n">
-        <v>87549711.44</v>
+        <v>76730839.48999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>64227611.37</v>
+        <v>17864613.67</v>
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>160109216.78</v>
+        <v>105688532.98</v>
       </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>128079354.25</v>
+        <v>61599392.4</v>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>254762296.94</v>
+        <v>200033652.99</v>
       </c>
       <c r="X2" t="n">
-        <v>146302260.58</v>
+        <v>48387690.64</v>
       </c>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
-        <v>206026.61</v>
+        <v>23347842.04</v>
       </c>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
-        <v>307316351.16</v>
+        <v>178501815.68</v>
       </c>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="n">
-        <v>188.8014555444</v>
+        <v>174.0570505753</v>
       </c>
       <c r="AG2" t="n">
-        <v>45.3250266313</v>
+        <v>52.8440977256</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/688698.xlsx
+++ b/资产负债表/688698.xlsx
@@ -789,49 +789,65 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-12-31 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>378535468.67</v>
+        <v>451417565.64</v>
       </c>
       <c r="P2" t="n">
-        <v>76730839.48999999</v>
+        <v>88828807.73</v>
       </c>
       <c r="Q2" t="n">
-        <v>17864613.67</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>62765070.75</v>
+      </c>
+      <c r="R2" t="n">
+        <v>26.7371598747</v>
+      </c>
       <c r="S2" t="n">
-        <v>105688532.98</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
+        <v>107011127.02</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.2338454294</v>
+      </c>
       <c r="U2" t="n">
-        <v>61599392.4</v>
-      </c>
-      <c r="V2" t="inlineStr"/>
+        <v>56306947.45</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-24.6854814242</v>
+      </c>
       <c r="W2" t="n">
-        <v>200033652.99</v>
+        <v>185976922.11</v>
       </c>
       <c r="X2" t="n">
-        <v>48387690.64</v>
-      </c>
-      <c r="Y2" t="inlineStr"/>
+        <v>59234015.95</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-5.3767821701</v>
+      </c>
       <c r="Z2" t="n">
-        <v>23347842.04</v>
-      </c>
-      <c r="AA2" t="inlineStr"/>
+        <v>4472557.95</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-5.6361506744</v>
+      </c>
       <c r="AB2" t="n">
-        <v>178501815.68</v>
-      </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
+        <v>265440643.53</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>30.1298216791</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>8.3508638931</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-12.5408424924</v>
+      </c>
       <c r="AF2" t="n">
-        <v>174.0570505753</v>
+        <v>216.3490061109</v>
       </c>
       <c r="AG2" t="n">
-        <v>52.8440977256</v>
+        <v>41.1984238687</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
